--- a/excel/danh_sach_hoc_sinh.xlsx
+++ b/excel/danh_sach_hoc_sinh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester_9\code\bbus-be\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC77D3A4-FF4F-46E3-89CF-B5E0569E60FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C42CA2-B816-4608-B02F-F104BC6FDDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="915" windowWidth="19950" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,108 +418,325 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>997896543</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>37638</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>997896544</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>37695</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>